--- a/phan cong cv.xlsx
+++ b/phan cong cv.xlsx
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -107,13 +107,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,7 +398,7 @@
   <dimension ref="F5:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,76 +407,76 @@
     <col min="10" max="10" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F5" s="1" t="s">
+    <row r="5" spans="6:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="1" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="6:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="6:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="6:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="6:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/phan cong cv.xlsx
+++ b/phan cong cv.xlsx
@@ -397,14 +397,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="6:10" ht="16.5" x14ac:dyDescent="0.25">
